--- a/Output/March/productivity_agent_valid/productivity_agent_2022-03-14_valid.xlsx
+++ b/Output/March/productivity_agent_valid/productivity_agent_2022-03-14_valid.xlsx
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>2642</v>
+        <v>2678</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -9665,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="AZ27">
-        <v>544.7422680412371</v>
+        <v>552.1649484536083</v>
       </c>
       <c r="BA27">
         <v>0</v>
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="CL27">
-        <v>0.6408732565191025</v>
+        <v>0.6496058217101274</v>
       </c>
       <c r="CM27">
         <v>0</v>
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="DA27">
-        <v>0.5706313173156586</v>
+        <v>0.5777895608947804</v>
       </c>
     </row>
     <row r="28" spans="1:105">
@@ -23182,7 +23182,7 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>3513</v>
+        <v>3548</v>
       </c>
       <c r="O70">
         <v>788</v>
@@ -23296,7 +23296,7 @@
         <v>0</v>
       </c>
       <c r="AZ70">
-        <v>490.1860465116279</v>
+        <v>495.0697674418604</v>
       </c>
       <c r="BA70">
         <v>1027.826086956522</v>
@@ -23410,7 +23410,7 @@
         <v>0</v>
       </c>
       <c r="CL70">
-        <v>0.5766894664842681</v>
+        <v>0.5824350205198359</v>
       </c>
       <c r="CM70">
         <v>1.284782608695652</v>
@@ -23455,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="DA70">
-        <v>0.64511863568957</v>
+        <v>0.6503089471082552</v>
       </c>
     </row>
     <row r="71" spans="1:105">
